--- a/tests/testthat/_snaps/knitxl/plot.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot.xlsx
@@ -251,7 +251,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
@@ -281,7 +281,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">39</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
@@ -311,7 +311,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">103</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>

--- a/tests/testthat/_snaps/knitxl/plot.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot.xlsx
@@ -237,8 +237,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
